--- a/biology/Zoologie/Bhutanitis_yulongensis/Bhutanitis_yulongensis.xlsx
+++ b/biology/Zoologie/Bhutanitis_yulongensis/Bhutanitis_yulongensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bhutanitis yulongensis est une espèce de papillons de la famille des Papilionidae, de la sous-famille des Parnassiinae et du genre Bhutanitis.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Bhutanitis yulongensis a été décrite en 1992 par l'entomologiste chinois Io Chou (d) (1912-2008)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Bhutanitis yulongensis a été décrite en 1992 par l'entomologiste chinois Io Chou (d) (1912-2008).
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,11 +584,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa biologie est encore très peu connue.
-Plantes hôtes
-La plante hôte de sa chenille est une aristoloche, Aristolochia delavayi[1].
 </t>
         </is>
       </c>
@@ -598,12 +614,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Biotope</t>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est une aristoloche, Aristolochia delavayi.
+</t>
         </is>
       </c>
     </row>
@@ -631,7 +654,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les Bhutanitis il est sur la liste de la convention sur le commerce international des espèces de faune et de flore sauvages menacées d'extinction (CITES).
 </t>
